--- a/src/test/resources/excel/BankManagerSuite.xlsx
+++ b/src/test/resources/excel/BankManagerSuite.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>TestCases</t>
   </si>
@@ -50,7 +50,7 @@
     <t>QW1234</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>headless</t>
   </si>
   <si>
     <t>N</t>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>WE1234</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
   <si>
     <t>Ditya</t>
@@ -451,7 +448,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -459,13 +456,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -481,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -495,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -509,10 +506,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -523,13 +520,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
